--- a/medicine/Handicap/Kirsten_Bruhn/Kirsten_Bruhn.xlsx
+++ b/medicine/Handicap/Kirsten_Bruhn/Kirsten_Bruhn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kirsten Bruhn, née le 3 novembre 1969 à Eutin, dans le Land allemand du Schleswig-Holstein, est une nageuse et l’une des athlètes handisport allemandes les plus médaillées.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kirsten Bruhn pratique la natation depuis l’âge de 10 ans. Elle passe son Fachabitur (l’équivalent du baccalauréat professionnel en Allemagne) en 1990 avant de partir un an aux États-Unis, dans le New Jersey, en tant que jeune fille au pair. 
 En 1991, elle souhaite commencer des études de graphisme et design, mais un accident de moto la laisse paraplégique incomplète, à l’exception des muscles vastes externes. Depuis cet accident, elle doit utiliser un fauteuil roulant pour se déplacer, mais trouve la motivation de reprendre la natation. En 1993, elle commence une formation de spécialiste en assurances sociales pour la caisse d’assurance-maladie du Schleswig-Holstein.
@@ -550,7 +564,9 @@
           <t>Palmarès (extrait)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d’or, Jeux paralympiques de 2004, 2008 et 2012
 65 fois championne d’Allemagne
@@ -584,7 +600,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2005 : « Sportplakette » du Land de Schleswig-Holstein, la plus haute distinction pour les sportifs du Land
 2012 : Bambi (Catégorie « sport »)</t>
